--- a/fight.xlsx
+++ b/fight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19793\discord_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FF9A4B-69D3-4807-A16D-24E231AA2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7541D-5D09-4B4D-BA73-3116CAC38E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32DD3A5D-BC1E-4ED6-961A-1A6075852C40}"/>
+    <workbookView xWindow="780" yWindow="2088" windowWidth="10596" windowHeight="8976" xr2:uid="{32DD3A5D-BC1E-4ED6-961A-1A6075852C40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,43 +36,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>티어</t>
-  </si>
-  <si>
-    <t>탑</t>
-  </si>
-  <si>
-    <t>정글</t>
-  </si>
-  <si>
-    <t>미드</t>
-  </si>
-  <si>
-    <t>원딜</t>
-  </si>
-  <si>
-    <t>서폿</t>
-  </si>
-  <si>
-    <t>다1~마/그/챌</t>
-  </si>
-  <si>
-    <t>다2,3</t>
-  </si>
-  <si>
-    <t>다4~플래1,2,3</t>
-  </si>
-  <si>
-    <t>플래4~골드1,2,3</t>
-  </si>
-  <si>
-    <t>골드4~실버 1,2,3</t>
-  </si>
-  <si>
-    <t>실버4~브론즈1,2,3</t>
-  </si>
-  <si>
-    <t>브론즈4~아이언</t>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>BRONZE</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>PLATINUM</t>
+  </si>
+  <si>
+    <t>DIAMOND</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>GRANDMASTER</t>
+  </si>
+  <si>
+    <t>CHALLENGER</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -424,172 +424,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214C2956-056B-4DDA-9CC2-595026AB18EA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>43</v>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>13</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
